--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>3.783497959375381e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>3.783497959375381e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81473.87221319182</v>
+        <v>5504986.422649592</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81473.87221319182</v>
+        <v>5504986.422649592</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417837196.194303</v>
+        <v>51537015.5910817</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14507.60344344258</v>
+        <v>1140623.471243443</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28417.01807232623</v>
+        <v>2179320.401421071</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42335.61588274861</v>
+        <v>3218017.331598699</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56533.77954701229</v>
+        <v>4255673.194773157</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70731.94321127594</v>
+        <v>5293329.057947615</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84930.10687553961</v>
+        <v>6330984.921122073</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99128.27053980324</v>
+        <v>7368640.784296526</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113326.4342040669</v>
+        <v>8406296.647470981</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>127538.3092808762</v>
+        <v>9443020.621597111</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>141736.4729451399</v>
+        <v>10480676.48477156</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>155934.6366094036</v>
+        <v>11518332.34794601</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>170132.8002736673</v>
+        <v>12555988.21112047</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184330.963937931</v>
+        <v>13593644.07429494</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>199165.2611425722</v>
+        <v>14567251.2554803</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>214016.8472923704</v>
+        <v>15538937.9993002</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>177</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
